--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H2">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I2">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J2">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N2">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O2">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P2">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q2">
-        <v>0.32070549984</v>
+        <v>2.71597958942125</v>
       </c>
       <c r="R2">
-        <v>1.28282199936</v>
+        <v>10.863918357685</v>
       </c>
       <c r="S2">
-        <v>0.001450851023052335</v>
+        <v>0.006617883802862304</v>
       </c>
       <c r="T2">
-        <v>0.0007496995471901951</v>
+        <v>0.003467060366207738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H3">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I3">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J3">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.99588</v>
       </c>
       <c r="O3">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P3">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q3">
-        <v>1.81610478976</v>
+        <v>5.77837999286</v>
       </c>
       <c r="R3">
-        <v>10.89662873856</v>
+        <v>34.67027995716</v>
       </c>
       <c r="S3">
-        <v>0.008215941084602827</v>
+        <v>0.01407987287919219</v>
       </c>
       <c r="T3">
-        <v>0.006368145880935712</v>
+        <v>0.01106451186093139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H4">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I4">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J4">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N4">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O4">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P4">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q4">
-        <v>0.9283030421333334</v>
+        <v>6.795848385353001</v>
       </c>
       <c r="R4">
-        <v>5.5698182528</v>
+        <v>40.775090312118</v>
       </c>
       <c r="S4">
-        <v>0.004199583166031374</v>
+        <v>0.01655908429183709</v>
       </c>
       <c r="T4">
-        <v>0.003255081550003894</v>
+        <v>0.01301277263830709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H5">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I5">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J5">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N5">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O5">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P5">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q5">
-        <v>0.771389958944</v>
+        <v>3.59257833508775</v>
       </c>
       <c r="R5">
-        <v>3.085559835776</v>
+        <v>14.370313340351</v>
       </c>
       <c r="S5">
-        <v>0.003489718485228834</v>
+        <v>0.008753845598433799</v>
       </c>
       <c r="T5">
-        <v>0.00180324535505596</v>
+        <v>0.004586074949382633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H6">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I6">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J6">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N6">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O6">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P6">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q6">
-        <v>0.304635613792</v>
+        <v>8.70714508366</v>
       </c>
       <c r="R6">
-        <v>1.827813682752</v>
+        <v>52.24287050196</v>
       </c>
       <c r="S6">
-        <v>0.001378151893711843</v>
+        <v>0.02121623985790135</v>
       </c>
       <c r="T6">
-        <v>0.001068200491565366</v>
+        <v>0.01667254666049109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.545056</v>
+        <v>1.7342285</v>
       </c>
       <c r="H7">
-        <v>1.090112</v>
+        <v>3.468457</v>
       </c>
       <c r="I7">
-        <v>0.02422165523531875</v>
+        <v>0.07427267180267853</v>
       </c>
       <c r="J7">
-        <v>0.01749764391946633</v>
+        <v>0.05433978729120988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N7">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O7">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P7">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q7">
-        <v>1.212972527904</v>
+        <v>2.891573982541333</v>
       </c>
       <c r="R7">
-        <v>7.277835167424</v>
+        <v>17.349443895248</v>
       </c>
       <c r="S7">
-        <v>0.005487409582691538</v>
+        <v>0.007045745372451808</v>
       </c>
       <c r="T7">
-        <v>0.004253271094715201</v>
+        <v>0.005536820815889939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>14.024691</v>
       </c>
       <c r="I8">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J8">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N8">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O8">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P8">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q8">
-        <v>2.75066264583</v>
+        <v>7.321367878942501</v>
       </c>
       <c r="R8">
-        <v>16.50397587498</v>
+        <v>43.928207273655</v>
       </c>
       <c r="S8">
-        <v>0.01244382062598025</v>
+        <v>0.01783958984433111</v>
       </c>
       <c r="T8">
-        <v>0.009645159847962782</v>
+        <v>0.01401904371725248</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>14.024691</v>
       </c>
       <c r="I9">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J9">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>9.99588</v>
       </c>
       <c r="O9">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P9">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q9">
         <v>15.57656980812</v>
@@ -1013,10 +1013,10 @@
         <v>140.18912827308</v>
       </c>
       <c r="S9">
-        <v>0.0704673984482081</v>
+        <v>0.03795460372339454</v>
       </c>
       <c r="T9">
-        <v>0.08192853415341374</v>
+        <v>0.0447393062434961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>14.024691</v>
       </c>
       <c r="I10">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J10">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N10">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O10">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P10">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q10">
-        <v>7.961972910600001</v>
+        <v>18.319322528226</v>
       </c>
       <c r="R10">
-        <v>71.6577561954</v>
+        <v>164.873902754034</v>
       </c>
       <c r="S10">
-        <v>0.03601945257758941</v>
+        <v>0.04463772419762236</v>
       </c>
       <c r="T10">
-        <v>0.04187781890173273</v>
+        <v>0.0526170903388774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>14.024691</v>
       </c>
       <c r="I11">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J11">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N11">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O11">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P11">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q11">
-        <v>6.616143304353001</v>
+        <v>9.684383390635501</v>
       </c>
       <c r="R11">
-        <v>39.696859826118</v>
+        <v>58.106300343813</v>
       </c>
       <c r="S11">
-        <v>0.02993100613045416</v>
+        <v>0.02359742474915005</v>
       </c>
       <c r="T11">
-        <v>0.02319941336472319</v>
+        <v>0.01854377438380584</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>14.024691</v>
       </c>
       <c r="I12">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J12">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N12">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O12">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P12">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q12">
-        <v>2.612832657579001</v>
+        <v>23.47153586172</v>
       </c>
       <c r="R12">
-        <v>23.515493918211</v>
+        <v>211.24382275548</v>
       </c>
       <c r="S12">
-        <v>0.01182028663744242</v>
+        <v>0.05719184989923959</v>
       </c>
       <c r="T12">
-        <v>0.01374279140148202</v>
+        <v>0.06741537089733834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>14.024691</v>
       </c>
       <c r="I13">
-        <v>0.2077469900241919</v>
+        <v>0.2002141532054896</v>
       </c>
       <c r="J13">
-        <v>0.225113611444094</v>
+        <v>0.219722696797148</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N13">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O13">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P13">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q13">
-        <v>10.403557857873</v>
+        <v>7.794711329136001</v>
       </c>
       <c r="R13">
-        <v>93.63202072085701</v>
+        <v>70.152401962224</v>
       </c>
       <c r="S13">
-        <v>0.04706502560451757</v>
+        <v>0.01899296079175198</v>
       </c>
       <c r="T13">
-        <v>0.05471989377477951</v>
+        <v>0.02238811121637786</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H14">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I14">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J14">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N14">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O14">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P14">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q14">
-        <v>1.25179129141</v>
+        <v>14.41061222160833</v>
       </c>
       <c r="R14">
-        <v>7.510747748459999</v>
+        <v>86.46367332964999</v>
       </c>
       <c r="S14">
-        <v>0.005663023168284565</v>
+        <v>0.03511357654607166</v>
       </c>
       <c r="T14">
-        <v>0.004389388542517549</v>
+        <v>0.02759361448127099</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H15">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I15">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J15">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.99588</v>
       </c>
       <c r="O15">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P15">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q15">
-        <v>7.088697141906666</v>
+        <v>30.65928539026666</v>
       </c>
       <c r="R15">
-        <v>63.79827427716</v>
+        <v>275.9335685124</v>
       </c>
       <c r="S15">
-        <v>0.03206880925202236</v>
+        <v>0.07470585897695006</v>
       </c>
       <c r="T15">
-        <v>0.03728462511631768</v>
+        <v>0.08806015542438859</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H16">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I16">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J16">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N16">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O16">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P16">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q16">
-        <v>3.623391755088889</v>
+        <v>36.05783201744666</v>
       </c>
       <c r="R16">
-        <v>32.6105257958</v>
+        <v>324.5204881570199</v>
       </c>
       <c r="S16">
-        <v>0.01639199089947889</v>
+        <v>0.08786021198540714</v>
       </c>
       <c r="T16">
-        <v>0.01905805827694146</v>
+        <v>0.1035659589355886</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H17">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I17">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J17">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N17">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O17">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P17">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q17">
-        <v>3.010921962264333</v>
+        <v>19.06172397773167</v>
       </c>
       <c r="R17">
-        <v>18.065531773586</v>
+        <v>114.37034386639</v>
       </c>
       <c r="S17">
-        <v>0.0136212170089423</v>
+        <v>0.04644669454005117</v>
       </c>
       <c r="T17">
-        <v>0.01055775547750543</v>
+        <v>0.03649961949577903</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H18">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I18">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J18">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N18">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O18">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P18">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q18">
-        <v>1.189066631499667</v>
+        <v>46.19890806493333</v>
       </c>
       <c r="R18">
-        <v>10.701599683497</v>
+        <v>415.7901725844</v>
       </c>
       <c r="S18">
-        <v>0.005379260847255088</v>
+        <v>0.1125704355745903</v>
       </c>
       <c r="T18">
-        <v>0.006254168108226319</v>
+        <v>0.1326933414412398</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.127485666666666</v>
+        <v>9.201576666666666</v>
       </c>
       <c r="H19">
-        <v>6.382457</v>
+        <v>27.60473</v>
       </c>
       <c r="I19">
-        <v>0.09454299069468508</v>
+        <v>0.394080528506202</v>
       </c>
       <c r="J19">
-        <v>0.1024463173667525</v>
+        <v>0.4324790984669206</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N19">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O19">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P19">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q19">
-        <v>4.734525749971001</v>
+        <v>15.34229179585778</v>
       </c>
       <c r="R19">
-        <v>42.610731749739</v>
+        <v>138.08062616272</v>
       </c>
       <c r="S19">
-        <v>0.02141868951870186</v>
+        <v>0.03738375088313171</v>
       </c>
       <c r="T19">
-        <v>0.02490232184524406</v>
+        <v>0.04406640868865362</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H20">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I20">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J20">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N20">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O20">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P20">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q20">
-        <v>2.74363785762</v>
+        <v>7.024237516027498</v>
       </c>
       <c r="R20">
-        <v>10.97455143048</v>
+        <v>28.09695006410999</v>
       </c>
       <c r="S20">
-        <v>0.01241204093661948</v>
+        <v>0.01711558800582952</v>
       </c>
       <c r="T20">
-        <v>0.006413685017992459</v>
+        <v>0.008966729937701015</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H21">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I21">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J21">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.99588</v>
       </c>
       <c r="O21">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P21">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q21">
-        <v>15.53678953768</v>
+        <v>14.94441036516</v>
       </c>
       <c r="R21">
-        <v>93.22073722607999</v>
+        <v>89.66646219095999</v>
       </c>
       <c r="S21">
-        <v>0.07028743506718105</v>
+        <v>0.03641425424702644</v>
       </c>
       <c r="T21">
-        <v>0.0544795338106107</v>
+        <v>0.02861573761923847</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H22">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I22">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J22">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N22">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O22">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P22">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q22">
-        <v>7.941639201733333</v>
+        <v>17.575851220518</v>
       </c>
       <c r="R22">
-        <v>47.6498352104</v>
+        <v>105.455107323108</v>
       </c>
       <c r="S22">
-        <v>0.03592746418847113</v>
+        <v>0.04282614698830242</v>
       </c>
       <c r="T22">
-        <v>0.02784724607057451</v>
+        <v>0.03365445237863893</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H23">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I23">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J23">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N23">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O23">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P23">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q23">
-        <v>6.599246646541999</v>
+        <v>9.291352416226498</v>
       </c>
       <c r="R23">
-        <v>26.396986586168</v>
+        <v>37.16540966490599</v>
       </c>
       <c r="S23">
-        <v>0.0298545667389143</v>
+        <v>0.02263974696331707</v>
       </c>
       <c r="T23">
-        <v>0.01542677698130289</v>
+        <v>0.01186079594862929</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H24">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I24">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J24">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N24">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O24">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P24">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q24">
-        <v>2.606159866906</v>
+        <v>22.51896714996</v>
       </c>
       <c r="R24">
-        <v>15.636959201436</v>
+        <v>135.11380289976</v>
       </c>
       <c r="S24">
-        <v>0.01179009936226514</v>
+        <v>0.05487077610574571</v>
       </c>
       <c r="T24">
-        <v>0.009138462887755853</v>
+        <v>0.04311959051404211</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.662958</v>
+        <v>4.485170999999999</v>
       </c>
       <c r="H25">
-        <v>9.325915999999999</v>
+        <v>8.970341999999999</v>
       </c>
       <c r="I25">
-        <v>0.2072164347383965</v>
+        <v>0.1920886628618382</v>
       </c>
       <c r="J25">
-        <v>0.1496924695727171</v>
+        <v>0.1405369812021329</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N25">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O25">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P25">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q25">
-        <v>10.376988699822</v>
+        <v>7.478370797647998</v>
       </c>
       <c r="R25">
-        <v>62.261932198932</v>
+        <v>44.87022478588799</v>
       </c>
       <c r="S25">
-        <v>0.04694482844494541</v>
+        <v>0.01822215055161707</v>
       </c>
       <c r="T25">
-        <v>0.03638676480448065</v>
+        <v>0.01431967480388305</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H26">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I26">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J26">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N26">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O26">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P26">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q26">
-        <v>0.61499601515</v>
+        <v>1.618517340504167</v>
       </c>
       <c r="R26">
-        <v>3.6899760909</v>
+        <v>9.711104043025001</v>
       </c>
       <c r="S26">
-        <v>0.002782202357610453</v>
+        <v>0.003943755591571564</v>
       </c>
       <c r="T26">
-        <v>0.002156474870146069</v>
+        <v>0.003099156568667942</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H27">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I27">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J27">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>9.99588</v>
       </c>
       <c r="O27">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P27">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q27">
-        <v>3.482625677933334</v>
+        <v>3.443475147933334</v>
       </c>
       <c r="R27">
-        <v>31.3436311014</v>
+        <v>30.9912763314</v>
       </c>
       <c r="S27">
-        <v>0.01575517423386483</v>
+        <v>0.008390533749159325</v>
       </c>
       <c r="T27">
-        <v>0.01831766687485824</v>
+        <v>0.009890411758367192</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H28">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I28">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J28">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N28">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O28">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P28">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q28">
-        <v>1.780146184111111</v>
+        <v>4.049808952163334</v>
       </c>
       <c r="R28">
-        <v>16.021315657</v>
+        <v>36.44828056947</v>
       </c>
       <c r="S28">
-        <v>0.00805326666891849</v>
+        <v>0.009867955257690122</v>
       </c>
       <c r="T28">
-        <v>0.009363086304597566</v>
+        <v>0.01163193470516443</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H29">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I29">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J29">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N29">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O29">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P29">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q29">
-        <v>1.479244201031667</v>
+        <v>2.140903545485834</v>
       </c>
       <c r="R29">
-        <v>8.87546520619</v>
+        <v>12.845421272915</v>
       </c>
       <c r="S29">
-        <v>0.006692005480048668</v>
+        <v>0.005216626425451267</v>
       </c>
       <c r="T29">
-        <v>0.005186948968370219</v>
+        <v>0.004099427988711021</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H30">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I30">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J30">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N30">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O30">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P30">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q30">
-        <v>0.5841798430283334</v>
+        <v>5.188796469266667</v>
       </c>
       <c r="R30">
-        <v>5.257618587255001</v>
+        <v>46.6991682234</v>
       </c>
       <c r="S30">
-        <v>0.002642791979953748</v>
+        <v>0.01264326589347686</v>
       </c>
       <c r="T30">
-        <v>0.003072627594576885</v>
+        <v>0.0149033553043673</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.045218333333333</v>
+        <v>1.033468333333333</v>
       </c>
       <c r="H31">
-        <v>3.135655</v>
+        <v>3.100405</v>
       </c>
       <c r="I31">
-        <v>0.04644828809449759</v>
+        <v>0.04426086547426008</v>
       </c>
       <c r="J31">
-        <v>0.05033113537351593</v>
+        <v>0.04857357269143126</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N31">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O31">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P31">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q31">
-        <v>2.326038285965001</v>
+        <v>1.723158248435556</v>
       </c>
       <c r="R31">
-        <v>20.934344573685</v>
+        <v>15.50842423592</v>
       </c>
       <c r="S31">
-        <v>0.0105228473741014</v>
+        <v>0.004198728556910935</v>
       </c>
       <c r="T31">
-        <v>0.01223433076096694</v>
+        <v>0.004949286366153378</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H32">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I32">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J32">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N32">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O32">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P32">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q32">
-        <v>5.55865193323</v>
+        <v>3.476969414520833</v>
       </c>
       <c r="R32">
-        <v>33.35191159938</v>
+        <v>20.861816487125</v>
       </c>
       <c r="S32">
-        <v>0.02514698328573131</v>
+        <v>0.008472147456862261</v>
       </c>
       <c r="T32">
-        <v>0.0194913347576336</v>
+        <v>0.00665774306546086</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H33">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I33">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J33">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>9.99588</v>
       </c>
       <c r="O33">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P33">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q33">
-        <v>31.47777136838667</v>
+        <v>7.397423227666667</v>
       </c>
       <c r="R33">
-        <v>283.29994231548</v>
+        <v>66.576809049</v>
       </c>
       <c r="S33">
-        <v>0.1424034100319946</v>
+        <v>0.01802490988959329</v>
       </c>
       <c r="T33">
-        <v>0.1655645433106737</v>
+        <v>0.02124701312755037</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H34">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I34">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J34">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N34">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O34">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P34">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q34">
-        <v>16.08988153415556</v>
+        <v>8.699975903216668</v>
       </c>
       <c r="R34">
-        <v>144.8089338074</v>
+        <v>78.29978312895</v>
       </c>
       <c r="S34">
-        <v>0.07278958763185166</v>
+        <v>0.02119877109513136</v>
       </c>
       <c r="T34">
-        <v>0.08462841466599801</v>
+        <v>0.02498822854067284</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H35">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I35">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J35">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N35">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O35">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P35">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q35">
-        <v>13.37017384702633</v>
+        <v>4.599182202629167</v>
       </c>
       <c r="R35">
-        <v>80.221043082158</v>
+        <v>27.595093215775</v>
       </c>
       <c r="S35">
-        <v>0.06048580524507206</v>
+        <v>0.01120658399781198</v>
       </c>
       <c r="T35">
-        <v>0.04688232638965006</v>
+        <v>0.00880656967773907</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H36">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I36">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J36">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N36">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O36">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P36">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q36">
-        <v>5.280119437865667</v>
+        <v>11.14679847433333</v>
       </c>
       <c r="R36">
-        <v>47.521074940791</v>
+        <v>100.321186269</v>
       </c>
       <c r="S36">
-        <v>0.02388692021835557</v>
+        <v>0.02716081422864453</v>
       </c>
       <c r="T36">
-        <v>0.02777199672509235</v>
+        <v>0.03201603669620277</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.447223666666668</v>
+        <v>2.220141666666667</v>
       </c>
       <c r="H37">
-        <v>28.341671</v>
+        <v>6.660425</v>
       </c>
       <c r="I37">
-        <v>0.4198236412129101</v>
+        <v>0.09508311814953165</v>
       </c>
       <c r="J37">
-        <v>0.4549188223234541</v>
+        <v>0.1043478635511574</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N37">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O37">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P37">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q37">
-        <v>21.02393657281301</v>
+        <v>3.701763568577777</v>
       </c>
       <c r="R37">
-        <v>189.215429155317</v>
+        <v>33.3158721172</v>
       </c>
       <c r="S37">
-        <v>0.0951109347999049</v>
+        <v>0.00901989148148823</v>
       </c>
       <c r="T37">
-        <v>0.1105802064744064</v>
+        <v>0.01063227244353145</v>
       </c>
     </row>
   </sheetData>
